--- a/data.xlsx
+++ b/data.xlsx
@@ -37,22 +37,22 @@
     <x:t>imo_gol_6</x:t>
   </x:si>
   <x:si>
-    <x:t>Peru - Premier Lig</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.10.2020, 23:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t> Sporting Cristal   Universitario </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.40</x:t>
+    <x:t>EED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.10.2020, 23:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t> Volendam   PSV II </x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.30</x:t>
   </x:si>
   <x:si>
     <x:t>1.65</x:t>
   </x:si>
   <x:si>
-    <x:t>3.75</x:t>
+    <x:t>3.90</x:t>
   </x:si>
   <x:si>
     <x:t>12.00</x:t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52" count="52">
   <x:si>
     <x:t>liga</x:t>
   </x:si>
@@ -25,37 +25,151 @@
     <x:t>teams</x:t>
   </x:si>
   <x:si>
-    <x:t>imo_gol_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>imo_gol_23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>imo_gol_45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>imo_gol_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.10.2020, 23:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t> Volendam   PSV II </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.00</x:t>
+    <x:t>0-1 gol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-3 gol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4-5 gol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6+ gol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FİN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HakaHaka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FİN2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MP MikkeliMP Mikkeli</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAN1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ViborgViborg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Slaven BelupoSlaven Belupo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FC AdmiraFC Admira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HvidovreHvidovre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSG SwarovskiWSG Swarovski</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOL2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jong AjaxJong Ajax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HelmondHelmond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Utrecht IIUtrecht II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,35</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -464,6 +578,213 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
